--- a/datos/resumen_fs.xlsx
+++ b/datos/resumen_fs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\OrganizacionInfo\5. FOCAL\12. Fondo Semilla\02_ Reportes\Reporte_trimestral\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Reporte_PNCAZ_2024\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{31C527C5-6F14-4856-923F-7166A7944D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD4A7AB-4098-41B9-8502-BC592704384C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB92D8D0-EDBA-40F5-9DDC-2CC74F5A829C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="167">
   <si>
     <t>N°</t>
   </si>
@@ -393,9 +393,6 @@
     <t>2024-4</t>
   </si>
   <si>
-    <t>FS-19</t>
-  </si>
-  <si>
     <t>Asociación de Turismo Sostenible El Paraiso de Consuelo (ATSPAC)</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>2024-5</t>
   </si>
   <si>
-    <t>FS-20</t>
-  </si>
-  <si>
     <t>CP Bajo Chimbote</t>
   </si>
   <si>
@@ -432,9 +426,6 @@
     <t>2024-6</t>
   </si>
   <si>
-    <t>FS-21</t>
-  </si>
-  <si>
     <t>CP Inca Huasi</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
   </si>
   <si>
     <t>2024-7</t>
-  </si>
-  <si>
-    <t>FS-22</t>
   </si>
   <si>
     <t>Lejía</t>
@@ -1021,11 +1009,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1384,14 +1373,15 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" customWidth="1"/>
     <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="60" x14ac:dyDescent="0.25">
@@ -1565,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
         <v>39</v>
@@ -1796,7 +1786,7 @@
         <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
         <v>60</v>
@@ -1873,7 +1863,7 @@
         <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
         <v>65</v>
@@ -2027,7 +2017,7 @@
         <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
         <v>77</v>
@@ -2095,7 +2085,7 @@
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G10" t="s">
         <v>81</v>
@@ -2172,7 +2162,7 @@
         <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G11" t="s">
         <v>77</v>
@@ -2308,7 +2298,7 @@
         <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
         <v>81</v>
@@ -2382,7 +2372,7 @@
         <v>99</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
         <v>100</v>
@@ -2512,7 +2502,7 @@
         <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
         <v>77</v>
@@ -2589,7 +2579,7 @@
         <v>114</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>60</v>
@@ -2780,29 +2770,29 @@
       <c r="D20">
         <v>2024</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" t="s">
         <v>122</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>123</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>124</v>
-      </c>
-      <c r="H20" t="s">
-        <v>125</v>
       </c>
       <c r="I20">
         <v>13</v>
       </c>
       <c r="J20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s">
         <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M20">
         <v>8</v>
@@ -2834,34 +2824,34 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21">
         <v>2024</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H21" t="s">
         <v>129</v>
-      </c>
-      <c r="F21" t="s">
-        <v>165</v>
-      </c>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" t="s">
-        <v>131</v>
       </c>
       <c r="I21">
         <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
         <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M21">
         <v>8</v>
@@ -2893,34 +2883,34 @@
         <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D22">
         <v>2024</v>
       </c>
-      <c r="E22" t="s">
-        <v>135</v>
+      <c r="E22" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22">
         <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
         <v>42</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -2952,19 +2942,19 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D23">
         <v>2024</v>
       </c>
-      <c r="E23" t="s">
-        <v>140</v>
+      <c r="E23" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G23" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H23" t="s">
         <v>56</v>
@@ -2973,13 +2963,13 @@
         <v>18</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K23" t="s">
         <v>32</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M23">
         <v>6</v>
@@ -3011,19 +3001,19 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D24">
         <v>2024</v>
       </c>
       <c r="E24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H24" t="s">
         <v>81</v>
@@ -3035,7 +3025,7 @@
         <v>42</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M24">
         <v>8</v>
@@ -3058,22 +3048,22 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>2024</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I25">
         <v>11</v>
@@ -3082,7 +3072,7 @@
         <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M25">
         <v>12</v>
@@ -3102,19 +3092,19 @@
         <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D26">
         <v>2024</v>
       </c>
       <c r="E26" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G26" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -3126,7 +3116,7 @@
         <v>32</v>
       </c>
       <c r="L26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M26">
         <v>12</v>
@@ -3146,19 +3136,19 @@
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D27">
         <v>2024</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G27" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H27" t="s">
         <v>30</v>
@@ -3170,7 +3160,7 @@
         <v>32</v>
       </c>
       <c r="L27" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M27">
         <v>12</v>
